--- a/biology/Médecine/Albrecht_von_Gräfe/Albrecht_von_Gräfe.xlsx
+++ b/biology/Médecine/Albrecht_von_Gräfe/Albrecht_von_Gräfe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albrecht_von_Gr%C3%A4fe</t>
+          <t>Albrecht_von_Gräfe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Wilhelm Ernst Albrecht von Graefe, né le 22 mai 1828 à Berlin et  mort le 20 juillet 1870, est un ophtalmologiste allemand.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albrecht_von_Gr%C3%A4fe</t>
+          <t>Albrecht_von_Gräfe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de Karl Ferdinand, dans sa jeunesse, Albrecht von Gräfe a manifesté une préférence pour l'étude des mathématiques, mais celle-ci a été progressivement remplacée par un intérêt pour les sciences naturelles, qui l'a mené finalement à l'étude de la médecine.
 Après la poursuite de ses études à Berlin, à Vienne, à Prague, à Paris, à Londres, à Dublin et à Édimbourg, et tout en consacrant une attention particulière à l'ophtalmologie il s'établit en 1850 en tant qu'oculiste à Berlin, où il fonde un établissement privé pour le traitement des yeux, devenus par la suite la référence en Allemagne et en Suisse.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Albrecht_von_Gr%C3%A4fe</t>
+          <t>Albrecht_von_Gräfe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Albrecht von Gräfe épouse le 7 juin 1862, à l'Heilandskirche de Sacrow près de Potsdam, Anna comtesse Knuth (branche de Conradsborg) (née le 15 mars 1842 à Frederiksborg, Danemark et morte le 22 mars 1872 à Nice), fille du chambellan et bailli royal danois, le comte Hans Schack Knuth (de), et de Frederikke de Løvenørn. Le couple a cinq enfants, dont deux meurent en bas âge :
 Anna Frederike Auguste (née le 21 juin 1863 et morte le 19 décembre 1939) mariée le 28 juin 1890 avec Erich Svantus von Bonin (de), capitaine
